--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H2">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I2">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J2">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N2">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O2">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P2">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q2">
-        <v>2.0663327709945</v>
+        <v>3.283006694704</v>
       </c>
       <c r="R2">
-        <v>8.265331083977999</v>
+        <v>13.132026778816</v>
       </c>
       <c r="S2">
-        <v>0.0003305508471709336</v>
+        <v>0.0002430015554183488</v>
       </c>
       <c r="T2">
-        <v>0.0002012887195926883</v>
+        <v>0.0001439151869107825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H3">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I3">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J3">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P3">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q3">
-        <v>0.4679574114178334</v>
+        <v>0.7899133695163334</v>
       </c>
       <c r="R3">
-        <v>2.807744468507</v>
+        <v>4.739480217098</v>
       </c>
       <c r="S3">
-        <v>7.485905511222889E-05</v>
+        <v>5.846779957770522E-05</v>
       </c>
       <c r="T3">
-        <v>6.837805809192331E-05</v>
+        <v>5.194043484619761E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H4">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I4">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J4">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N4">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O4">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P4">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q4">
-        <v>2.95725277587</v>
+        <v>10.909183800174</v>
       </c>
       <c r="R4">
-        <v>17.74351665522</v>
+        <v>65.45510280104401</v>
       </c>
       <c r="S4">
-        <v>0.0004730711452115015</v>
+        <v>0.0008074758531754833</v>
       </c>
       <c r="T4">
-        <v>0.0004321145411251718</v>
+        <v>0.0007173289784233937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H5">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I5">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J5">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N5">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O5">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P5">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q5">
-        <v>24.633441738017</v>
+        <v>37.0978981148085</v>
       </c>
       <c r="R5">
-        <v>98.53376695206799</v>
+        <v>148.391592459234</v>
       </c>
       <c r="S5">
-        <v>0.003940606832324698</v>
+        <v>0.002745911837216855</v>
       </c>
       <c r="T5">
-        <v>0.002399629922251146</v>
+        <v>0.001626238213221554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H6">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I6">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J6">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N6">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O6">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P6">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q6">
-        <v>0.9851856936850001</v>
+        <v>1.235286855986667</v>
       </c>
       <c r="R6">
-        <v>5.91111416211</v>
+        <v>7.41172113592</v>
       </c>
       <c r="S6">
-        <v>0.00015759996174843</v>
+        <v>9.143344967186129E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001439555885866187</v>
+        <v>8.122578872038328E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H7">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I7">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J7">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N7">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O7">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P7">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q7">
-        <v>2.8075839947065</v>
+        <v>1.627293651635</v>
       </c>
       <c r="R7">
-        <v>16.845503968239</v>
+        <v>9.76376190981</v>
       </c>
       <c r="S7">
-        <v>0.0004491286597110537</v>
+        <v>0.0001204490045992314</v>
       </c>
       <c r="T7">
-        <v>0.0004102449000782705</v>
+        <v>0.0001070020373754808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J8">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N8">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O8">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P8">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q8">
-        <v>3.173201814252</v>
+        <v>2.986730688362667</v>
       </c>
       <c r="R8">
-        <v>19.039210885512</v>
+        <v>17.920384130176</v>
       </c>
       <c r="S8">
-        <v>0.000507616470429648</v>
+        <v>0.0002210718010592668</v>
       </c>
       <c r="T8">
-        <v>0.0004636690705141611</v>
+        <v>0.0001963912711301847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J9">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P9">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q9">
         <v>0.7186273807142224</v>
@@ -1013,10 +1013,10 @@
         <v>6.467646426428001</v>
       </c>
       <c r="S9">
-        <v>0.0001149586808232194</v>
+        <v>5.319135399920791E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001575090283409854</v>
+        <v>7.087958012953135E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J10">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N10">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O10">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P10">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q10">
-        <v>4.541359458320001</v>
+        <v>9.924680961976001</v>
       </c>
       <c r="R10">
-        <v>40.87223512488001</v>
+        <v>89.32212865778401</v>
       </c>
       <c r="S10">
-        <v>0.000726480379795227</v>
+        <v>0.0007346049323266718</v>
       </c>
       <c r="T10">
-        <v>0.0009953769294404097</v>
+        <v>0.0009788900873847403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J11">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N11">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O11">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P11">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q11">
-        <v>37.82879655764533</v>
+        <v>33.749986240354</v>
       </c>
       <c r="R11">
-        <v>226.972779345872</v>
+        <v>202.499917442124</v>
       </c>
       <c r="S11">
-        <v>0.006051465148843561</v>
+        <v>0.002498106130878095</v>
       </c>
       <c r="T11">
-        <v>0.005527553545373009</v>
+        <v>0.002219216725563885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J12">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N12">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O12">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P12">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q12">
-        <v>1.512918477826667</v>
+        <v>1.123807992124445</v>
       </c>
       <c r="R12">
-        <v>13.61626630044</v>
+        <v>10.11427192912</v>
       </c>
       <c r="S12">
-        <v>0.0002420212714844927</v>
+        <v>8.318200828476634E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003316020594216203</v>
+        <v>0.000110843311520952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J13">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N13">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O13">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P13">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q13">
-        <v>4.311517849750667</v>
+        <v>1.480438007073333</v>
       </c>
       <c r="R13">
-        <v>38.803660647756</v>
+        <v>13.32394206366</v>
       </c>
       <c r="S13">
-        <v>0.0006897126628552505</v>
+        <v>0.0001095790450258878</v>
       </c>
       <c r="T13">
-        <v>0.0009450001564289158</v>
+        <v>0.0001460184055954957</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H14">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I14">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J14">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N14">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O14">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P14">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q14">
-        <v>133.760118990108</v>
+        <v>157.6474779853013</v>
       </c>
       <c r="R14">
-        <v>802.560713940648</v>
+        <v>945.8848679118079</v>
       </c>
       <c r="S14">
-        <v>0.02139757993993639</v>
+        <v>0.01166874938756775</v>
       </c>
       <c r="T14">
-        <v>0.01954506321200584</v>
+        <v>0.01036604629692067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H15">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I15">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J15">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P15">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q15">
-        <v>30.29233234462356</v>
+        <v>37.93103764668045</v>
       </c>
       <c r="R15">
-        <v>272.630991101612</v>
+        <v>341.379338820124</v>
       </c>
       <c r="S15">
-        <v>0.004845858450224154</v>
+        <v>0.002807579150430681</v>
       </c>
       <c r="T15">
-        <v>0.006639485165513443</v>
+        <v>0.003741210110310716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H16">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I16">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J16">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N16">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O16">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P16">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q16">
-        <v>191.43212977928</v>
+        <v>523.850687161208</v>
       </c>
       <c r="R16">
-        <v>1722.88916801352</v>
+        <v>4714.656184450872</v>
       </c>
       <c r="S16">
-        <v>0.03062336016856674</v>
+        <v>0.0387743747195196</v>
       </c>
       <c r="T16">
-        <v>0.04195816853626193</v>
+        <v>0.05166838580468529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H17">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I17">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J17">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N17">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O17">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P17">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q17">
-        <v>1594.598965019181</v>
+        <v>1781.412778045682</v>
       </c>
       <c r="R17">
-        <v>9567.593790115086</v>
+        <v>10688.47666827409</v>
       </c>
       <c r="S17">
-        <v>0.2550876829637171</v>
+        <v>0.1318565924966084</v>
       </c>
       <c r="T17">
-        <v>0.2330032135468111</v>
+        <v>0.1171360783384644</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H18">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I18">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J18">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N18">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O18">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P18">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q18">
-        <v>63.77412073430667</v>
+        <v>59.31753284232889</v>
       </c>
       <c r="R18">
-        <v>573.96708660876</v>
+        <v>533.85779558096</v>
       </c>
       <c r="S18">
-        <v>0.01020193355698494</v>
+        <v>0.004390564529617725</v>
       </c>
       <c r="T18">
-        <v>0.01397803654541789</v>
+        <v>0.005850600652044914</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H19">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I19">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J19">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N19">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O19">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P19">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q19">
-        <v>181.7436061017027</v>
+        <v>78.14140024008667</v>
       </c>
       <c r="R19">
-        <v>1635.692454915324</v>
+        <v>703.27260216078</v>
       </c>
       <c r="S19">
-        <v>0.02907348894045981</v>
+        <v>0.005783869351086055</v>
       </c>
       <c r="T19">
-        <v>0.03983463415465075</v>
+        <v>0.007707234358710803</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H20">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I20">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J20">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N20">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O20">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P20">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q20">
-        <v>9.935175302743501</v>
+        <v>11.359121558576</v>
       </c>
       <c r="R20">
-        <v>39.740701210974</v>
+        <v>45.436486234304</v>
       </c>
       <c r="S20">
-        <v>0.001589328040097343</v>
+        <v>0.0008407793415020548</v>
       </c>
       <c r="T20">
-        <v>0.0009678202580389027</v>
+        <v>0.0004979429694377017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H21">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I21">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J21">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.160829</v>
       </c>
       <c r="O21">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P21">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q21">
-        <v>2.249995248546834</v>
+        <v>2.733080623793667</v>
       </c>
       <c r="R21">
-        <v>13.499971491281</v>
+        <v>16.398483742762</v>
       </c>
       <c r="S21">
-        <v>0.000359931297600134</v>
+        <v>0.0002022971332154082</v>
       </c>
       <c r="T21">
-        <v>0.0003287698881518851</v>
+        <v>0.0001797126134939089</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H22">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I22">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J22">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N22">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O22">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P22">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q22">
-        <v>14.21882532921</v>
+        <v>37.74550478100601</v>
       </c>
       <c r="R22">
-        <v>85.31295197526001</v>
+        <v>226.473028686036</v>
       </c>
       <c r="S22">
-        <v>0.002274582692740154</v>
+        <v>0.002793846380706865</v>
       </c>
       <c r="T22">
-        <v>0.002077658437792145</v>
+        <v>0.002481940434829093</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H23">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I23">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J23">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N23">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O23">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P23">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q23">
-        <v>118.440536496611</v>
+        <v>128.3578053415365</v>
       </c>
       <c r="R23">
-        <v>473.7621459864439</v>
+        <v>513.431221366146</v>
       </c>
       <c r="S23">
-        <v>0.01894690934001493</v>
+        <v>0.00950078670213959</v>
       </c>
       <c r="T23">
-        <v>0.01153770790161724</v>
+        <v>0.005626743794639315</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H24">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I24">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J24">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N24">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O24">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P24">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q24">
-        <v>4.736890741855</v>
+        <v>4.274061816413333</v>
       </c>
       <c r="R24">
-        <v>28.42134445113</v>
+        <v>25.64437089848</v>
       </c>
       <c r="S24">
-        <v>0.0007577594807842738</v>
+        <v>0.0003163574631200242</v>
       </c>
       <c r="T24">
-        <v>0.0006921557013923412</v>
+        <v>0.0002810392099578806</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H25">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I25">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J25">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N25">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O25">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P25">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q25">
-        <v>13.4991999140395</v>
+        <v>5.630395585315</v>
       </c>
       <c r="R25">
-        <v>80.99519948423699</v>
+        <v>33.78237351189</v>
       </c>
       <c r="S25">
-        <v>0.00215946435654116</v>
+        <v>0.0004167505619343575</v>
       </c>
       <c r="T25">
-        <v>0.001972506585845052</v>
+        <v>0.0003702243895889971</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H26">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I26">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J26">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N26">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O26">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P26">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q26">
-        <v>2.210718747987</v>
+        <v>539.1385511036799</v>
       </c>
       <c r="R26">
-        <v>13.264312487922</v>
+        <v>3234.831306622079</v>
       </c>
       <c r="S26">
-        <v>0.0003536482435266539</v>
+        <v>0.03990595167397346</v>
       </c>
       <c r="T26">
-        <v>0.0003230307957229594</v>
+        <v>0.03545083786063838</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H27">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I27">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J27">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.160829</v>
       </c>
       <c r="O27">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P27">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q27">
-        <v>0.5006561562603333</v>
+        <v>129.7203414861933</v>
       </c>
       <c r="R27">
-        <v>4.505905406343</v>
+        <v>1167.48307337574</v>
       </c>
       <c r="S27">
-        <v>8.008986689667953E-05</v>
+        <v>0.009601638888338126</v>
       </c>
       <c r="T27">
-        <v>0.0001097340107290696</v>
+        <v>0.01279456305945739</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H28">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I28">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J28">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N28">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O28">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P28">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q28">
-        <v>3.16389220842</v>
+        <v>1791.51676944108</v>
       </c>
       <c r="R28">
-        <v>28.47502987578</v>
+        <v>16123.65092496972</v>
       </c>
       <c r="S28">
-        <v>0.0005061272146148093</v>
+        <v>0.132604469626733</v>
       </c>
       <c r="T28">
-        <v>0.0006934631227501542</v>
+        <v>0.1767006933228659</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H29">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I29">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J29">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N29">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O29">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P29">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q29">
-        <v>26.35471509822199</v>
+        <v>6092.252894541571</v>
       </c>
       <c r="R29">
-        <v>158.128290589332</v>
+        <v>36553.51736724942</v>
       </c>
       <c r="S29">
-        <v>0.004215958593384309</v>
+        <v>0.4509363114500187</v>
       </c>
       <c r="T29">
-        <v>0.003850957792339041</v>
+        <v>0.400593630576539</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H30">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I30">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J30">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N30">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O30">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P30">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q30">
-        <v>1.05402600871</v>
+        <v>202.8600084210667</v>
       </c>
       <c r="R30">
-        <v>9.48623407839</v>
+        <v>1825.7400757896</v>
       </c>
       <c r="S30">
-        <v>0.0001686123334101716</v>
+        <v>0.01501528999560662</v>
       </c>
       <c r="T30">
-        <v>0.0002310218298571342</v>
+        <v>0.02000846698558564</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H31">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I31">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J31">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N31">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O31">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P31">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q31">
-        <v>3.003765250579</v>
+        <v>267.2357455067</v>
       </c>
       <c r="R31">
-        <v>27.033887255211</v>
+        <v>2405.1217095603</v>
       </c>
       <c r="S31">
-        <v>0.0004805117366471574</v>
+        <v>0.0197802526343508</v>
       </c>
       <c r="T31">
-        <v>0.0006583664339548192</v>
+        <v>0.02635796790583145</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H32">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I32">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J32">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N32">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O32">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P32">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q32">
-        <v>229.687967570655</v>
+        <v>92.86738194975999</v>
       </c>
       <c r="R32">
-        <v>1378.12780542393</v>
+        <v>557.2042916985599</v>
       </c>
       <c r="S32">
-        <v>0.03674313901962117</v>
+        <v>0.006873856912270546</v>
       </c>
       <c r="T32">
-        <v>0.03356206527849752</v>
+        <v>0.006106457223849681</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H33">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I33">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J33">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.160829</v>
       </c>
       <c r="O33">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P33">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q33">
-        <v>52.01688142731056</v>
+        <v>22.34451325135333</v>
       </c>
       <c r="R33">
-        <v>468.151932845795</v>
+        <v>201.10061926218</v>
       </c>
       <c r="S33">
-        <v>0.008321130296313378</v>
+        <v>0.001653895949680456</v>
       </c>
       <c r="T33">
-        <v>0.01140108026888849</v>
+        <v>0.002203881677707037</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H34">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I34">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J34">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N34">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O34">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P34">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q34">
-        <v>328.7202280373</v>
+        <v>308.59131063156</v>
       </c>
       <c r="R34">
-        <v>2958.4820523357</v>
+        <v>2777.32179568404</v>
       </c>
       <c r="S34">
-        <v>0.05258531025845169</v>
+        <v>0.02284130842408073</v>
       </c>
       <c r="T34">
-        <v>0.07204902722009178</v>
+        <v>0.03043694564970236</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H35">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I35">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J35">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N35">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O35">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P35">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q35">
-        <v>2738.186823776763</v>
+        <v>1049.39922276699</v>
       </c>
       <c r="R35">
-        <v>16429.12094266058</v>
+        <v>6296.39533660194</v>
       </c>
       <c r="S35">
-        <v>0.4380272079196996</v>
+        <v>0.07767442076756914</v>
       </c>
       <c r="T35">
-        <v>0.4001045674978517</v>
+        <v>0.06900282241222683</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H36">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I36">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J36">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N36">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O36">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P36">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q36">
-        <v>109.5105797278167</v>
+        <v>34.94292486746667</v>
       </c>
       <c r="R36">
-        <v>985.59521755035</v>
+        <v>314.4863238071999</v>
       </c>
       <c r="S36">
-        <v>0.01751838591118498</v>
+        <v>0.002586405049785156</v>
       </c>
       <c r="T36">
-        <v>0.02400257138663885</v>
+        <v>0.003446486885376172</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H37">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I37">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J37">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N37">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O37">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P37">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q37">
-        <v>312.0834507298017</v>
+        <v>46.0317371069</v>
       </c>
       <c r="R37">
-        <v>2808.751056568215</v>
+        <v>414.2856339621</v>
       </c>
       <c r="S37">
-        <v>0.04992392826307203</v>
+        <v>0.003407176638911407</v>
       </c>
       <c r="T37">
-        <v>0.06840257190993503</v>
+        <v>0.004540197446314013</v>
       </c>
     </row>
   </sheetData>
